--- a/resourse/course-data.xlsx
+++ b/resourse/course-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="student" sheetId="1" r:id="rId1"/>
@@ -1437,7 +1437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
@@ -1540,7 +1540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1642,21 +1642,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EE3F516641E6749AAF478748140BC9F" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f34abc3372502f3aff2a3748ecdfaaf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d6adb12b-0970-432b-b11b-78114fd2e7be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="adbd416617b9dca5eea4f7db275825c3" ns3:_="">
     <xsd:import namespace="d6adb12b-0970-432b-b11b-78114fd2e7be"/>
@@ -1788,31 +1773,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D468E54-E223-4DCF-A6A1-37256A073C88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15BBF4B9-A70F-49FC-B352-8290B900039D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d6adb12b-0970-432b-b11b-78114fd2e7be"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9609FD08-C3F8-49F4-89C3-72503EEF69B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1828,4 +1804,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D468E54-E223-4DCF-A6A1-37256A073C88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15BBF4B9-A70F-49FC-B352-8290B900039D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d6adb12b-0970-432b-b11b-78114fd2e7be"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>